--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19752,7 +19753,6 @@
           <t>华夏新锦升灵活配置混合C</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
           <t>63.23</t>
@@ -19784,7 +19784,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -19799,6 +19798,4278 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1180</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>221.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.4528</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.8125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9260</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.2734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.0450</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8149</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.4895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3985</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7950</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.7588</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6928</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4087</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7881</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6898</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6780</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5836</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4995</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2374</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>46.29</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005865</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005866</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24076,4 +24077,4504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>190.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.1412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.3365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.0836</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9861</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.9476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4853</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.2491</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.0285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>51.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9312</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4768</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3077</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>45.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2322</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8825</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7550</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6840</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>30.59</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28577,4 +28578,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91.70999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>115.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>220</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>287</v>
+      </c>
+      <c r="D5" t="n">
+        <v>366.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28586,7 +28587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28597,17 +28598,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28617,14 +28638,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91.70999999999999</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -28633,14 +28676,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>111</v>
-      </c>
-      <c r="D3" t="n">
-        <v>115.19</v>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>169.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.3685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -28649,14 +28714,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>220</v>
-      </c>
-      <c r="D4" t="n">
-        <v>214.42</v>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8933</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -28665,13 +28752,5279 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6818</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1963</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9825</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>62.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9558</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9280</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8663</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.8059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2999</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1631</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012852</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1164</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0450</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0328</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9786</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9371</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9171</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6983</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6736</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6194</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6159</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007016</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国睿泽回报混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3562</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3196</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002593</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012198</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012853</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>嘉实远见先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>72.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012199</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>国金核心资产一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91.70999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>220</v>
+      </c>
+      <c r="D5" t="n">
+        <v>214.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>287</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>366.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33923,7 +33924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33934,17 +33935,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33954,14 +33975,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.75</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -33970,14 +34013,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91.70999999999999</v>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -33986,14 +34051,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>115.19</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6367</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -34002,14 +34089,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>220</v>
-      </c>
-      <c r="D5" t="n">
-        <v>214.42</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -34018,13 +34127,3167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4968</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4773</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>208.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4212</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3185</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2845</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9941</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8861</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7588</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6962</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2795</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2795</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2662</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1786</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>36.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0963</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7255</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6881</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6793</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5859</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5324</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3977</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3842</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>91.70999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>220</v>
+      </c>
+      <c r="D6" t="n">
+        <v>214.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>287</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>366.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37170,7 +37171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37181,17 +37182,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -37201,14 +37222,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.45</v>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -37217,14 +37260,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>139</v>
-      </c>
-      <c r="D3" t="n">
-        <v>108.75</v>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -37233,14 +37298,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>117</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.70999999999999</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5717</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -37249,14 +37336,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>115.19</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -37265,14 +37374,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>220</v>
-      </c>
-      <c r="D6" t="n">
-        <v>214.42</v>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -37281,13 +37412,6901 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5665</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3667</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1333</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9964</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6705</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009550</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6322</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5695</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5632</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4494</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4494</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3855</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1647</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1108</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0521</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9513</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9368</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8926</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7143</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6220</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6062</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009551</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富开放视野中国优势六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>55.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012872</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013726</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华宝深证创新100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>96.65</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>013727</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>惠升惠诚稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合O</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>183</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>139</v>
+      </c>
+      <c r="D4" t="n">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>117</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91.70999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>115.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>220</v>
+      </c>
+      <c r="D7" t="n">
+        <v>214.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>287</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>366.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002352-顺丰控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D2" t="n">
-        <v>80.22</v>
+        <v>69.94</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="D3" t="n">
-        <v>59.45</v>
+        <v>80.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>108.75</v>
+        <v>59.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D5" t="n">
-        <v>91.70999999999999</v>
+        <v>108.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>115.19</v>
+        <v>91.70999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="D7" t="n">
-        <v>214.42</v>
+        <v>115.19</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>220</v>
+      </c>
+      <c r="D8" t="n">
+        <v>214.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>287</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>366.14</v>
       </c>
     </row>
@@ -600,6 +617,6480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1856</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>145.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀恒心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7468</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5894</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4496</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4095</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富创新未来混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2409</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0032</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7580</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>257030</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6361</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5825</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时成长优势混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4727</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010922</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>朱雀匠心一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3155</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2831</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中小企业100ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015309</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011722</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博道盛彦混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013693</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博道盛兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011994</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国联安核心优势混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>70.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>申万菱信中小企业100指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159716</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华宝深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005970</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国泰消费优选股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时成长优势混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发中小企业300ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011723</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>前海开源深圳特区精选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006863</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国联安智能制造混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159721</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>永赢深证创新100ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012430</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>农银汇理瑞康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.44</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博道盛彦混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>013410</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>申万菱信中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>国联安中小企业综合指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012872</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7601,7 +14092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10847,7 +17338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16183,7 +22674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20683,7 +27174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24955,7 +31446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33357,7 +39848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
